--- a/4_구현/@_기본 구현/2. 서버/2014_07_18Command_Table.xlsx
+++ b/4_구현/@_기본 구현/2. 서버/2014_07_18Command_Table.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13020"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="134">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -406,6 +406,118 @@
   </si>
   <si>
     <t>홍기용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/sharing?todo=add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int returnCheck,int applicationID,String startDay,String endDay,int productID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharingadd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이선민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/sharing?todo=find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int applicationID,int productID, int sharingID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;SharingVO&gt;, SharingVO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharingfind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/sharing?todo=update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int sharingID,String startDay,String endDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharingupdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유수정(날짜변경)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/sharing?todo=remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int sharingID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharingremove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/sharing/start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int sharingID, int returnCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여기간,반납,공유상태수정 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartCommand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SharingCommand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,7 +673,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -616,6 +728,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -623,9 +747,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -929,16 +1050,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I25"/>
+  <dimension ref="A3:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
-    <col min="2" max="3" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="57.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="28" style="1" customWidth="1"/>
@@ -977,7 +1099,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -997,12 +1119,12 @@
         <v>17</v>
       </c>
       <c r="H4" s="8"/>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
@@ -1014,10 +1136,10 @@
       <c r="F5" s="7"/>
       <c r="G5" s="10"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="21"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
@@ -1029,10 +1151,10 @@
       <c r="F6" s="7"/>
       <c r="G6" s="10"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="21"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1044,10 +1166,10 @@
       <c r="F7" s="7"/>
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="21"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1055,10 +1177,10 @@
       <c r="F8" s="7"/>
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="17"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="19" t="s">
         <v>67</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1080,12 +1202,12 @@
       <c r="H9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
@@ -1105,10 +1227,10 @@
       <c r="H10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="21"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="5" t="s">
         <v>33</v>
       </c>
@@ -1128,10 +1250,10 @@
       <c r="H11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="21"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="5" t="s">
         <v>38</v>
       </c>
@@ -1151,10 +1273,10 @@
       <c r="H12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="21"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="5" t="s">
         <v>44</v>
       </c>
@@ -1174,10 +1296,10 @@
       <c r="H13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="5" t="s">
         <v>49</v>
       </c>
@@ -1197,10 +1319,10 @@
       <c r="H14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="21"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="5" t="s">
         <v>54</v>
       </c>
@@ -1220,10 +1342,10 @@
       <c r="H15" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="21"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="16" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="5" t="s">
         <v>60</v>
       </c>
@@ -1243,10 +1365,10 @@
       <c r="H16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="5" t="s">
         <v>62</v>
       </c>
@@ -1266,10 +1388,10 @@
       <c r="H17" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="17"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="19" t="s">
         <v>104</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -1278,7 +1400,7 @@
       <c r="C18" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="19" t="s">
         <v>71</v>
       </c>
       <c r="E18" s="14" t="s">
@@ -1291,17 +1413,17 @@
       <c r="H18" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="14" t="s">
         <v>76</v>
       </c>
@@ -1312,17 +1434,17 @@
       <c r="H19" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="21"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="22" t="s">
         <v>80</v>
       </c>
       <c r="E20" s="14" t="s">
@@ -1335,15 +1457,15 @@
       <c r="H20" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I20" s="21"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="19"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="14" t="s">
         <v>85</v>
       </c>
@@ -1354,15 +1476,15 @@
       <c r="H21" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="I21" s="21"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="14" t="s">
         <v>88</v>
       </c>
@@ -1373,15 +1495,15 @@
       <c r="H22" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="I22" s="21"/>
+      <c r="I22" s="20"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="20"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="14" t="s">
         <v>92</v>
       </c>
@@ -1392,10 +1514,10 @@
       <c r="H23" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I23" s="21"/>
+      <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="14" t="s">
         <v>95</v>
       </c>
@@ -1415,10 +1537,10 @@
       <c r="H24" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I24" s="21"/>
+      <c r="I24" s="20"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="14" t="s">
         <v>100</v>
       </c>
@@ -1438,10 +1560,134 @@
       <c r="H25" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="I25" s="17"/>
+      <c r="I25" s="21"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A26:A30"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="I18:I25"/>
     <mergeCell ref="I9:I17"/>

--- a/4_구현/@_기본 구현/2. 서버/2014_07_18Command_Table.xlsx
+++ b/4_구현/@_기본 구현/2. 서버/2014_07_18Command_Table.xlsx
@@ -578,7 +578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -623,6 +623,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -946,7 +955,7 @@
   <dimension ref="A3:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -991,7 +1000,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1013,12 +1022,12 @@
       <c r="H4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1038,10 +1047,10 @@
       <c r="H5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="16"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1061,10 +1070,10 @@
       <c r="H6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="16"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
@@ -1084,10 +1093,10 @@
       <c r="H7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="16"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="5" t="s">
         <v>31</v>
       </c>
@@ -1107,10 +1116,10 @@
       <c r="H8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="16"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="5" t="s">
         <v>36</v>
       </c>
@@ -1130,10 +1139,10 @@
       <c r="H9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="5" t="s">
         <v>41</v>
       </c>
@@ -1153,10 +1162,10 @@
       <c r="H10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="16"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="5" t="s">
         <v>47</v>
       </c>
@@ -1176,10 +1185,10 @@
       <c r="H11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="16"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="5" t="s">
         <v>49</v>
       </c>
@@ -1199,10 +1208,10 @@
       <c r="H12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="17"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="18" t="s">
         <v>91</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -1211,7 +1220,7 @@
       <c r="C13" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="18" t="s">
         <v>58</v>
       </c>
       <c r="E13" s="12" t="s">
@@ -1224,17 +1233,17 @@
       <c r="H13" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="18" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="12" t="s">
         <v>63</v>
       </c>
@@ -1245,17 +1254,17 @@
       <c r="H14" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="16"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="12" t="s">
         <v>65</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="21" t="s">
         <v>67</v>
       </c>
       <c r="E15" s="12" t="s">
@@ -1268,15 +1277,15 @@
       <c r="H15" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="16"/>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="12" t="s">
         <v>72</v>
       </c>
@@ -1287,15 +1296,15 @@
       <c r="H16" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="16"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="12" t="s">
         <v>75</v>
       </c>
@@ -1306,15 +1315,15 @@
       <c r="H17" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="16"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="20"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="12" t="s">
         <v>79</v>
       </c>
@@ -1325,10 +1334,10 @@
       <c r="H18" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I18" s="16"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="12" t="s">
         <v>82</v>
       </c>
@@ -1348,10 +1357,10 @@
       <c r="H19" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I19" s="16"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="12" t="s">
         <v>87</v>
       </c>
@@ -1371,148 +1380,153 @@
       <c r="H20" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="17"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="18" t="s">
         <v>93</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="F21" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="G21" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="H21" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="I21" s="15" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="E22" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="F22" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="G22" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="H22" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="E23" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="F23" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="G23" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="H23" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="E24" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="F24" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="G24" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="H24" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="E25" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="F25" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="G25" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="H25" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="E26" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="F26" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="G26" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="H26" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A21:A26"/>
-    <mergeCell ref="H21:H26"/>
     <mergeCell ref="I13:I20"/>
     <mergeCell ref="I4:I12"/>
     <mergeCell ref="D13:D14"/>

--- a/4_구현/@_기본 구현/2. 서버/2014_07_18Command_Table.xlsx
+++ b/4_구현/@_기본 구현/2. 서버/2014_07_18Command_Table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="134">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,15 +38,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>회원관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>기능 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>회원수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">String email, String name, String </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int result (성공 1, 실패 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이영재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>command name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/action/customer?todo=add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>참조 JSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/customer?todo=find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/customer?todo=update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/customer?todo=remove</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -357,73 +409,116 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원관리</t>
-  </si>
-  <si>
-    <t>회원등록</t>
-  </si>
-  <si>
-    <t>String customerEmail, String customerName, String customerPassword, int customerConnection, int customerAutoLogin, String customerRegistry</t>
-  </si>
-  <si>
-    <t>int result (성공 1, 실패 0)</t>
-  </si>
-  <si>
-    <t>없음</t>
-  </si>
-  <si>
-    <t>회원가입</t>
-  </si>
-  <si>
-    <t>이영재</t>
-  </si>
-  <si>
-    <t>회원조회</t>
-  </si>
-  <si>
-    <t>int customerId</t>
-  </si>
-  <si>
-    <t>CustomerVO result(객체)</t>
-  </si>
-  <si>
-    <t>회원수정</t>
-  </si>
-  <si>
-    <t>int customerId, String customerName</t>
-  </si>
-  <si>
-    <t>회원정보 수정(이름, 패스워드)</t>
-  </si>
-  <si>
-    <t>회원삭제</t>
-  </si>
-  <si>
-    <t>회원정보 삭제</t>
-  </si>
-  <si>
-    <t>로그인</t>
-  </si>
-  <si>
-    <t>/action/customer/login</t>
-  </si>
-  <si>
-    <t>string customerPassword, String customerEmail, int customerConnection</t>
-  </si>
-  <si>
-    <t>PW찾기</t>
-  </si>
-  <si>
-    <t>/action/customer/findPassword</t>
-  </si>
-  <si>
-    <t>String customerEmail, String customerName</t>
-  </si>
-  <si>
-    <t>CustomerVO result.getcustomerPassword</t>
-  </si>
-  <si>
-    <t>비밀번호 찾기</t>
+    <t>공유관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/sharing?todo=add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int returnCheck,int applicationID,String startDay,String endDay,int productID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharingadd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이선민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/sharing?todo=find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int applicationID,int productID, int sharingID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;SharingVO&gt;, SharingVO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharingfind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/sharing?todo=update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int sharingID,String startDay,String endDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharingupdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유수정(날짜변경)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/sharing?todo=remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int sharingID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharingremove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/sharing/start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int sharingID, int returnCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여기간,반납,공유상태수정 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartCommand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SharingCommand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -578,7 +673,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -606,6 +701,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -615,6 +713,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -624,13 +725,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -952,16 +1050,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I26"/>
+  <dimension ref="A3:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
-    <col min="2" max="3" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="57.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="28" style="1" customWidth="1"/>
@@ -981,7 +1080,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -990,549 +1089,613 @@
         <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="A4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="20"/>
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="11" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="5" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="19"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
+        <v>26</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
       <c r="B10" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="19"/>
-    </row>
-    <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
+        <v>31</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
       <c r="B11" s="5" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="19"/>
+        <v>37</v>
+      </c>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="F14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="G14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="20"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="12" t="s">
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="G15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="H15" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="12" t="s">
+      <c r="E16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12" t="s">
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="12" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="19"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="H17" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="13" t="s">
+      <c r="I17" s="21"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="12" t="s">
+      <c r="C18" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="19"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12" t="s">
+      <c r="D18" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="12" t="s">
+      <c r="E18" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="12" t="s">
+      <c r="F18" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="12" t="s">
+      <c r="I18" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="12" t="s">
+      <c r="F19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I19" s="19"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="20"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="D22" s="23"/>
+      <c r="E22" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="F22" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="12" t="s">
+      <c r="G22" s="15"/>
+      <c r="H22" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="G23" s="15"/>
+      <c r="H23" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="12" t="s">
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="C24" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="D24" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="E24" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="F24" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="14" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="6" t="s">
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="12" t="s">
+      <c r="C25" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="D25" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="6" t="s">
+      <c r="E25" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="6" t="s">
+      <c r="I25" s="21"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H24" s="8" t="s">
+      <c r="B26" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="6" t="s">
+      <c r="C26" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6" t="s">
+      <c r="E26" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="F26" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="12" t="s">
+      <c r="G26" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12" t="s">
+      <c r="H26" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="12" t="s">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="G26" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H26" s="12" t="s">
+      <c r="E27" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="I26" s="17"/>
+      <c r="F27" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="I13:I20"/>
-    <mergeCell ref="I4:I12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="A4:A12"/>
+  <mergeCells count="9">
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="I18:I25"/>
+    <mergeCell ref="I9:I17"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A9:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4_구현/@_기본 구현/2. 서버/2014_07_18Command_Table.xlsx
+++ b/4_구현/@_기본 구현/2. 서버/2014_07_18Command_Table.xlsx
@@ -952,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I26"/>
+  <dimension ref="A3:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1382,151 +1382,151 @@
       </c>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14" t="s">
+      <c r="C29" s="14"/>
+      <c r="D29" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E29" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F29" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G29" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H29" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I29" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="6" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
+      <c r="B30" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14" t="s">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E30" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F30" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G30" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H30" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="6" t="s">
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
+      <c r="B31" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14" t="s">
+      <c r="C31" s="14"/>
+      <c r="D31" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E31" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F31" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G31" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H31" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="6" t="s">
+      <c r="I31" s="16"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="19"/>
+      <c r="B32" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E32" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F32" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G32" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H32" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="6" t="s">
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E33" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F33" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G33" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H33" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="12" t="s">
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12" t="s">
+      <c r="C34" s="12"/>
+      <c r="D34" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E34" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F34" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G34" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H34" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="I26" s="17"/>
+      <c r="I34" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A29:A34"/>
     <mergeCell ref="I13:I20"/>
     <mergeCell ref="I4:I12"/>
     <mergeCell ref="D13:D14"/>

--- a/4_구현/@_기본 구현/2. 서버/2014_07_18Command_Table.xlsx
+++ b/4_구현/@_기본 구현/2. 서버/2014_07_18Command_Table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="144">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,6 +424,118 @@
   </si>
   <si>
     <t>비밀번호 찾기</t>
+  </si>
+  <si>
+    <t>공유관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SharingCommand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/sharing?todo=add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int returnCheck,int applicationID,String startDay,String endDay,int productID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharingadd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이선민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/sharing?todo=find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int applicationID,int productID, int sharingID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;SharingVO&gt;, SharingVO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharingfind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/sharing?todo=update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int sharingID,String startDay,String endDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharingupdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유수정(날짜변경)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/sharing?todo=remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int sharingID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharingremove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartCommand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/sharing/start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int sharingID, int returnCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여기간,반납,공유상태수정 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -578,7 +690,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -623,6 +735,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -952,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I34"/>
+  <dimension ref="A3:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1000,7 +1121,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="21" t="s">
         <v>54</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1022,12 +1143,12 @@
       <c r="H4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="21" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1047,10 +1168,10 @@
       <c r="H5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="19"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1070,10 +1191,10 @@
       <c r="H6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
@@ -1093,10 +1214,10 @@
       <c r="H7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="19"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="5" t="s">
         <v>31</v>
       </c>
@@ -1116,10 +1237,10 @@
       <c r="H8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="19"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="5" t="s">
         <v>36</v>
       </c>
@@ -1139,10 +1260,10 @@
       <c r="H9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="19"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="5" t="s">
         <v>41</v>
       </c>
@@ -1162,10 +1283,10 @@
       <c r="H10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="19"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="5" t="s">
         <v>47</v>
       </c>
@@ -1185,10 +1306,10 @@
       <c r="H11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="19"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="5" t="s">
         <v>49</v>
       </c>
@@ -1208,10 +1329,10 @@
       <c r="H12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="20"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="21" t="s">
         <v>91</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -1220,7 +1341,7 @@
       <c r="C13" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="21" t="s">
         <v>58</v>
       </c>
       <c r="E13" s="12" t="s">
@@ -1233,17 +1354,17 @@
       <c r="H13" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="21" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="12" t="s">
         <v>63</v>
       </c>
@@ -1254,17 +1375,17 @@
       <c r="H14" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="19"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="12" t="s">
         <v>65</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="24" t="s">
         <v>67</v>
       </c>
       <c r="E15" s="12" t="s">
@@ -1277,15 +1398,15 @@
       <c r="H15" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="19"/>
+      <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="12" t="s">
         <v>72</v>
       </c>
@@ -1296,15 +1417,15 @@
       <c r="H16" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="19"/>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="22"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="12" t="s">
         <v>75</v>
       </c>
@@ -1315,15 +1436,15 @@
       <c r="H17" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="19"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="23"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="12" t="s">
         <v>79</v>
       </c>
@@ -1334,10 +1455,10 @@
       <c r="H18" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I18" s="19"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="12" t="s">
         <v>82</v>
       </c>
@@ -1357,10 +1478,10 @@
       <c r="H19" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I19" s="19"/>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="12" t="s">
         <v>87</v>
       </c>
@@ -1380,21 +1501,215 @@
       <c r="H20" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="20"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
+      <c r="B22" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+      <c r="B25" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="20"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="22"/>
+      <c r="B27" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="16"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+      <c r="B28" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" s="16"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>94</v>
+      <c r="A29" s="22"/>
+      <c r="B29" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>96</v>
@@ -1403,23 +1718,21 @@
         <v>97</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>99</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14" t="s">
-        <v>67</v>
+        <v>108</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>102</v>
@@ -1428,111 +1741,43 @@
         <v>97</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I30" s="16"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14" t="s">
-        <v>84</v>
+      <c r="A31" s="23"/>
+      <c r="B31" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G31" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H31" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I31" s="16"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I32" s="16"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="I33" s="16"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H34" s="12" t="s">
+      <c r="H31" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="I34" s="17"/>
+      <c r="I31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A29:A34"/>
+  <mergeCells count="8">
+    <mergeCell ref="A26:A31"/>
     <mergeCell ref="I13:I20"/>
     <mergeCell ref="I4:I12"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="A13:A20"/>
     <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A21:A25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4_구현/@_기본 구현/2. 서버/2014_07_18Command_Table.xlsx
+++ b/4_구현/@_기본 구현/2. 서버/2014_07_18Command_Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13020"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="28032" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="145">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,304 +237,308 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>박우람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품등록</t>
+  </si>
+  <si>
+    <t>createVillageProduct</t>
+  </si>
+  <si>
+    <t>/action/customer?todo=add</t>
+  </si>
+  <si>
+    <t>String product_name, byte[] product_picture,int customer_id,String detail_text_1,String detail_text_2, String detail_text_3, String detail_decription,int village_id</t>
+  </si>
+  <si>
+    <t>int result (성공1, 실패 0)</t>
+  </si>
+  <si>
+    <t>마을화면에서 물품등록</t>
+  </si>
+  <si>
+    <t>createProduct</t>
+  </si>
+  <si>
+    <t>String product_name, byte[] product_picture,int customer_id, String detail_text_1,String detail_text_2, String detail_text_3, String detail_decription</t>
+  </si>
+  <si>
+    <t>메인화면에서 물품등록</t>
+  </si>
+  <si>
+    <t>물품조회</t>
+  </si>
+  <si>
+    <t>findIDProdcuts</t>
+  </si>
+  <si>
+    <t>/action/customer?todo=find</t>
+  </si>
+  <si>
+    <t>int customer_id</t>
+  </si>
+  <si>
+    <t>List&lt;ProductVO&gt;</t>
+  </si>
+  <si>
+    <t>회원 아이디로 모든 물품찾기</t>
+  </si>
+  <si>
+    <t>findProductByVillageID</t>
+  </si>
+  <si>
+    <t>int village_id</t>
+  </si>
+  <si>
+    <t>마을 아이디로 모든 물품찾기</t>
+  </si>
+  <si>
+    <t>findProductByID</t>
+  </si>
+  <si>
+    <t>int product_id</t>
+  </si>
+  <si>
+    <t>ProductVO</t>
+  </si>
+  <si>
+    <t>물품 아이디로 물품찾기</t>
+  </si>
+  <si>
+    <t>findCategoryID</t>
+  </si>
+  <si>
+    <t>int category_id</t>
+  </si>
+  <si>
+    <t>CategoryVO</t>
+  </si>
+  <si>
+    <t>카테고리 아이디로 물품찾기</t>
+  </si>
+  <si>
+    <t>물품수정</t>
+  </si>
+  <si>
+    <t>updateProduct</t>
+  </si>
+  <si>
+    <t>/action/customer?todo=update</t>
+  </si>
+  <si>
+    <t>int product_id, String product_name, byte[] product_picture,String detail_field1,String detail_field2,String detail_field3,String detail_decription, int village_id</t>
+  </si>
+  <si>
+    <t>물품 수정</t>
+  </si>
+  <si>
+    <t>물품삭제</t>
+  </si>
+  <si>
+    <t>deleteProduct</t>
+  </si>
+  <si>
+    <t>/action/customer?todo=remove</t>
+  </si>
+  <si>
+    <t>물품 삭제</t>
+  </si>
+  <si>
+    <t>물품관리</t>
+  </si>
+  <si>
+    <t>홍기용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리</t>
+  </si>
+  <si>
+    <t>회원등록</t>
+  </si>
+  <si>
+    <t>String customerEmail, String customerName, String customerPassword, int customerConnection, int customerAutoLogin, String customerRegistry</t>
+  </si>
+  <si>
+    <t>int result (성공 1, 실패 0)</t>
+  </si>
+  <si>
+    <t>없음</t>
+  </si>
+  <si>
+    <t>회원가입</t>
+  </si>
+  <si>
+    <t>이영재</t>
+  </si>
+  <si>
+    <t>회원조회</t>
+  </si>
+  <si>
+    <t>int customerId</t>
+  </si>
+  <si>
+    <t>CustomerVO result(객체)</t>
+  </si>
+  <si>
+    <t>회원수정</t>
+  </si>
+  <si>
+    <t>int customerId, String customerName</t>
+  </si>
+  <si>
+    <t>회원정보 수정(이름, 패스워드)</t>
+  </si>
+  <si>
+    <t>회원삭제</t>
+  </si>
+  <si>
+    <t>회원정보 삭제</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>/action/customer/login</t>
+  </si>
+  <si>
+    <t>string customerPassword, String customerEmail, int customerConnection</t>
+  </si>
+  <si>
+    <t>PW찾기</t>
+  </si>
+  <si>
+    <t>/action/customer/findPassword</t>
+  </si>
+  <si>
+    <t>String customerEmail, String customerName</t>
+  </si>
+  <si>
+    <t>CustomerVO result.getcustomerPassword</t>
+  </si>
+  <si>
+    <t>비밀번호 찾기</t>
+  </si>
+  <si>
+    <t>공유관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SharingCommand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/sharing?todo=add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int returnCheck,int applicationID,String startDay,String endDay,int productID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharingadd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이선민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/sharing?todo=find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int applicationID,int productID, int sharingID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;SharingVO&gt;, SharingVO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharingfind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/sharing?todo=update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int sharingID,String startDay,String endDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharingupdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유수정(날짜변경)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/sharing?todo=remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int sharingID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharingremove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartCommand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/sharing/start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int sharingID, int returnCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여기간,반납,공유상태수정 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>마을관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>박우람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물품등록</t>
-  </si>
-  <si>
-    <t>createVillageProduct</t>
-  </si>
-  <si>
-    <t>/action/customer?todo=add</t>
-  </si>
-  <si>
-    <t>String product_name, byte[] product_picture,int customer_id,String detail_text_1,String detail_text_2, String detail_text_3, String detail_decription,int village_id</t>
-  </si>
-  <si>
-    <t>int result (성공1, 실패 0)</t>
-  </si>
-  <si>
-    <t>마을화면에서 물품등록</t>
-  </si>
-  <si>
-    <t>createProduct</t>
-  </si>
-  <si>
-    <t>String product_name, byte[] product_picture,int customer_id, String detail_text_1,String detail_text_2, String detail_text_3, String detail_decription</t>
-  </si>
-  <si>
-    <t>메인화면에서 물품등록</t>
-  </si>
-  <si>
-    <t>물품조회</t>
-  </si>
-  <si>
-    <t>findIDProdcuts</t>
-  </si>
-  <si>
-    <t>/action/customer?todo=find</t>
-  </si>
-  <si>
-    <t>int customer_id</t>
-  </si>
-  <si>
-    <t>List&lt;ProductVO&gt;</t>
-  </si>
-  <si>
-    <t>회원 아이디로 모든 물품찾기</t>
-  </si>
-  <si>
-    <t>findProductByVillageID</t>
-  </si>
-  <si>
-    <t>int village_id</t>
-  </si>
-  <si>
-    <t>마을 아이디로 모든 물품찾기</t>
-  </si>
-  <si>
-    <t>findProductByID</t>
-  </si>
-  <si>
-    <t>int product_id</t>
-  </si>
-  <si>
-    <t>ProductVO</t>
-  </si>
-  <si>
-    <t>물품 아이디로 물품찾기</t>
-  </si>
-  <si>
-    <t>findCategoryID</t>
-  </si>
-  <si>
-    <t>int category_id</t>
-  </si>
-  <si>
-    <t>CategoryVO</t>
-  </si>
-  <si>
-    <t>카테고리 아이디로 물품찾기</t>
-  </si>
-  <si>
-    <t>물품수정</t>
-  </si>
-  <si>
-    <t>updateProduct</t>
-  </si>
-  <si>
-    <t>/action/customer?todo=update</t>
-  </si>
-  <si>
-    <t>int product_id, String product_name, byte[] product_picture,String detail_field1,String detail_field2,String detail_field3,String detail_decription, int village_id</t>
-  </si>
-  <si>
-    <t>물품 수정</t>
-  </si>
-  <si>
-    <t>물품삭제</t>
-  </si>
-  <si>
-    <t>deleteProduct</t>
-  </si>
-  <si>
-    <t>/action/customer?todo=remove</t>
-  </si>
-  <si>
-    <t>물품 삭제</t>
-  </si>
-  <si>
-    <t>물품관리</t>
-  </si>
-  <si>
-    <t>홍기용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원관리</t>
-  </si>
-  <si>
-    <t>회원등록</t>
-  </si>
-  <si>
-    <t>String customerEmail, String customerName, String customerPassword, int customerConnection, int customerAutoLogin, String customerRegistry</t>
-  </si>
-  <si>
-    <t>int result (성공 1, 실패 0)</t>
-  </si>
-  <si>
-    <t>없음</t>
-  </si>
-  <si>
-    <t>회원가입</t>
-  </si>
-  <si>
-    <t>이영재</t>
-  </si>
-  <si>
-    <t>회원조회</t>
-  </si>
-  <si>
-    <t>int customerId</t>
-  </si>
-  <si>
-    <t>CustomerVO result(객체)</t>
-  </si>
-  <si>
-    <t>회원수정</t>
-  </si>
-  <si>
-    <t>int customerId, String customerName</t>
-  </si>
-  <si>
-    <t>회원정보 수정(이름, 패스워드)</t>
-  </si>
-  <si>
-    <t>회원삭제</t>
-  </si>
-  <si>
-    <t>회원정보 삭제</t>
-  </si>
-  <si>
-    <t>로그인</t>
-  </si>
-  <si>
-    <t>/action/customer/login</t>
-  </si>
-  <si>
-    <t>string customerPassword, String customerEmail, int customerConnection</t>
-  </si>
-  <si>
-    <t>PW찾기</t>
-  </si>
-  <si>
-    <t>/action/customer/findPassword</t>
-  </si>
-  <si>
-    <t>String customerEmail, String customerName</t>
-  </si>
-  <si>
-    <t>CustomerVO result.getcustomerPassword</t>
-  </si>
-  <si>
-    <t>비밀번호 찾기</t>
-  </si>
-  <si>
-    <t>공유관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공유등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SharingCommand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/action/sharing?todo=add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int returnCheck,int applicationID,String startDay,String endDay,int productID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sharingadd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이선민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공유조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/action/sharing?todo=find</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int applicationID,int productID, int sharingID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;SharingVO&gt;, SharingVO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sharingfind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공유수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/action/sharing?todo=update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int sharingID,String startDay,String endDay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sharingupdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공유수정(날짜변경)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공유삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/action/sharing?todo=remove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int sharingID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sharingremove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartCommand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/action/sharing/start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int sharingID, int returnCheck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여기간,반납,공유상태수정 등</t>
+    <t>query string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1075,34 +1079,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
-    <col min="2" max="3" width="16.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="57.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="111.8984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="28" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.8984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.69921875" style="1" customWidth="1"/>
     <col min="10" max="10" width="18" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -1120,9 +1125,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
@@ -1144,10 +1149,10 @@
         <v>13</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A5" s="22"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
@@ -1170,7 +1175,7 @@
       </c>
       <c r="I5" s="22"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="22"/>
       <c r="B6" s="5" t="s">
         <v>20</v>
@@ -1193,7 +1198,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="22"/>
       <c r="B7" s="5" t="s">
         <v>25</v>
@@ -1216,7 +1221,7 @@
       </c>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="22"/>
       <c r="B8" s="5" t="s">
         <v>31</v>
@@ -1239,7 +1244,7 @@
       </c>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A9" s="22"/>
       <c r="B9" s="5" t="s">
         <v>36</v>
@@ -1262,7 +1267,7 @@
       </c>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="22"/>
       <c r="B10" s="5" t="s">
         <v>41</v>
@@ -1285,7 +1290,7 @@
       </c>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A11" s="22"/>
       <c r="B11" s="5" t="s">
         <v>47</v>
@@ -1308,7 +1313,7 @@
       </c>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="23"/>
       <c r="B12" s="5" t="s">
         <v>49</v>
@@ -1331,440 +1336,440 @@
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="E13" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="22"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="22"/>
       <c r="B15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="E15" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="F15" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="22"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="22"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I17" s="22"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="22"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I18" s="22"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="22"/>
       <c r="B19" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="D19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="E19" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="F19" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I19" s="22"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="23"/>
       <c r="B20" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="D20" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>89</v>
-      </c>
       <c r="E20" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="F21" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="G21" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="H21" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="22"/>
       <c r="B22" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="F22" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="G22" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>128</v>
-      </c>
       <c r="H22" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="22"/>
       <c r="B23" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="F23" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="13" t="s">
+      <c r="H23" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>133</v>
-      </c>
       <c r="I23" s="19"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="22"/>
       <c r="B24" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="F24" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>137</v>
-      </c>
       <c r="H24" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="23"/>
       <c r="B25" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="E25" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="F25" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="G25" s="13" t="s">
+      <c r="H25" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="H25" s="12" t="s">
-        <v>143</v>
-      </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="G26" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="H26" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="I26" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="I26" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="22"/>
       <c r="B27" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>102</v>
-      </c>
       <c r="G27" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="22"/>
       <c r="B28" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E28" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>105</v>
-      </c>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="22"/>
       <c r="B29" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F29" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="H29" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I29" s="16"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="22"/>
       <c r="B30" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>110</v>
-      </c>
       <c r="F30" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I30" s="16"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="23"/>
       <c r="B31" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="F31" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="G31" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>115</v>
       </c>
       <c r="I31" s="17"/>
     </row>
@@ -1791,7 +1796,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1804,7 +1809,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
